--- a/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example_hsieh_box.xlsx
+++ b/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example_hsieh_box.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnahh\Desktop\GW_Modeling\homework-hsiehdf\Working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D6B505-1FAB-4ED2-9E01-10B39407FF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860DBC30-4CA3-44C7-919A-16C754E26976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="5" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
   </bookViews>
   <sheets>
     <sheet name="bcf_1_edited" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">              HEAD IN LAYER   1 AT END OF TIME STEP   1 IN STRESS PERIOD    1</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">           1           2           3           4           5           6           7           8           9          10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is head  vertically! </t>
   </si>
 </sst>
 </file>
@@ -8185,6 +8188,1061 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>h - distance along streamline - heterogenous box</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Column 11</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>q_1_complex!$B$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>heads_1!$M$4:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-133A-4130-898F-C5F8B405FB1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Column 16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>heads_1!$C$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>heads_1!$R$4:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-133A-4130-898F-C5F8B405FB1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Column 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>heads_1!$C$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>heads_1!$G$4:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-133A-4130-898F-C5F8B405FB1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="133578607"/>
+        <c:axId val="134214047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="133578607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>length (meters)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134214047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134214047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>head  dy (meters)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133578607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8226,6 +9284,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9341,6 +10439,544 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9452,6 +11088,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400538</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>115767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3569B98-DBB4-49A7-9B69-6EA9318C54BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15956,7 +17630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520DF9AE-552C-DA41-ACC0-54A27029221C}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -18303,7 +19977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B842760C-4A3D-7C48-B8D8-B3990F9D725F}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -20971,10 +22645,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B181C23-F43C-6848-921C-DFC38BE5DD7E}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -23637,6 +25311,104 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.6">
+      <c r="C29" s="2">
+        <f>SUM(C3:C27)</f>
+        <v>4.6900000000000108E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:Z29" si="2">SUM(D3:D27)</f>
+        <v>4.6699999999999929E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7100000000000017E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5400000000000024E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7399999999999859E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6700000000000144E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7000000000000104E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6699999999999874E-2</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7045454545454668E-2</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8909999999999912E-2</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8640000000000079E-2</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8569999999999933E-2</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8690000000000122E-2</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7545454545454439E-2</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6800000000000147E-2</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.699999999999991E-2</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6000000000000048E-2</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6999999999999986E-2</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6900000000000108E-2</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6499999999999923E-2</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2800000000000097E-2</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4599999999999897E-2</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4599999999999959E-2</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5200000000000094E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23644,10 +25416,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7FEA8-679C-6245-B574-9BBD7BB6F993}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -23657,6 +25429,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.6">
+      <c r="K70" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
